--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/123/word_level_predictions_123.xlsx
@@ -1594,106 +1594,106 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9186,210 +9186,210 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>15</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>5</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" t="n">
         <v>15</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" t="n">
         <v>6</v>
       </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" t="n">
         <v>15</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" t="n">
         <v>7</v>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>15</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>8</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10694,574 +10694,574 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>18</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>3</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>18</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>4</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>18</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>5</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11318,574 +11318,574 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>19</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>3</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>19</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>4</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>19</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>5</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>19</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>6</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>19</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>7</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>19</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>19</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>9</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>19</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>10</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,291 +12641,291 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/123/word_level_predictions_123.xlsx
@@ -1594,106 +1594,106 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" t="n">
         <v>0</v>
       </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9186,210 +9186,210 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10694,574 +10694,574 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>18</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>0</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>18</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>18</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>18</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>3</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>18</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>4</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F202" s="2" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>18</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>5</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,574 +11318,574 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>19</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>3</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>19</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>4</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>19</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>5</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>19</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>6</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>19</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>7</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>19</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>8</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>19</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>9</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>19</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>10</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12641,291 +12641,291 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
